--- a/casus/criteria_totaalscore.xlsx
+++ b/casus/criteria_totaalscore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvandenbrink\Documents\github\disgeo-imsor\casus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A96857-1696-4502-B187-1027D5B8F1EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A47198B-9EA5-43FE-9148-5814C678466C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36480" yWindow="1335" windowWidth="20730" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,8 +261,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +289,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -333,15 +345,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -379,13 +392,17 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Goed" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Invoer" xfId="5" builtinId="20"/>
     <cellStyle name="Kop 1" xfId="1" builtinId="16"/>
     <cellStyle name="Neutraal" xfId="4" builtinId="28"/>
+    <cellStyle name="Ongeldig" xfId="6" builtinId="27"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -700,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,16 +768,16 @@
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="10"/>
@@ -775,13 +792,13 @@
       <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="15" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="10" t="s">
@@ -799,16 +816,16 @@
       <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="15" t="s">
         <v>48</v>
       </c>
       <c r="H4" s="10"/>
@@ -826,13 +843,13 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="15" t="s">
         <v>43</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="15" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="10"/>
@@ -856,7 +873,7 @@
       <c r="F6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H6" s="10"/>
@@ -877,7 +894,7 @@
       <c r="E7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="15" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="10" t="s">
@@ -898,10 +915,10 @@
       <c r="D8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="15" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="10" t="s">
@@ -919,16 +936,16 @@
       <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="15" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="10"/>

--- a/casus/criteria_totaalscore.xlsx
+++ b/casus/criteria_totaalscore.xlsx
@@ -5,28 +5,37 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvandenbrink\Documents\github\disgeo-imsor\casus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\git\Geonovum\disgeo-imsor\casus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A47198B-9EA5-43FE-9148-5814C678466C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C8FD62-A27F-4063-974A-E724C2B5AF8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="5370" windowWidth="16890" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
     <sheet name="Voorbeeld" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Is er een hoge mate van complexiteit in de oplossing?</t>
   </si>
@@ -134,68 +143,108 @@
 Omdat...</t>
   </si>
   <si>
-    <t>Mist er volgens jou een belangrijk criterium. Voeg deze, desgewenst, hieronder toe.</t>
-  </si>
-  <si>
-    <t>Nee: 2
-ja: 3</t>
-  </si>
-  <si>
-    <t>Ja: 6</t>
+    <t>Tot</t>
+  </si>
+  <si>
+    <t>Ja: 7
+Nee: 0
+Neutraal: 0</t>
+  </si>
+  <si>
+    <t>Ja: 5
+Nee: 0
+Neutraal: 2</t>
+  </si>
+  <si>
+    <t>Ja: 4
+Nee: 3
+Neutraal: 0</t>
+  </si>
+  <si>
+    <t>Ja: 6
+Nee: 1
+Neutraal: 0</t>
   </si>
   <si>
     <t>Ja: 3
-nee: 3</t>
-  </si>
-  <si>
-    <t>Nee: 6</t>
+Nee: 4
+Neutraal: 0</t>
+  </si>
+  <si>
+    <t>Ja: 1
+Nee: 4
+Neutraal: 2</t>
+  </si>
+  <si>
+    <t>Ja: 4
+Nee: 2
+Neutraal: 1</t>
   </si>
   <si>
     <t>Ja: 5
-nee: 1</t>
-  </si>
-  <si>
-    <t>Nee: 1
-Ja: 5</t>
-  </si>
-  <si>
-    <t>geen onderscheid: 4
-aanleveren: 1
-uitleveren: 1</t>
+Nee: 2
+Neutraal: 0</t>
+  </si>
+  <si>
+    <t>Ja: 0
+Nee: 5
+Neutraal: 2</t>
+  </si>
+  <si>
+    <t>Ja: 2
+Nee: 3
+Neutraal: 2</t>
+  </si>
+  <si>
+    <t>Ja: 0
+Nee: 7
+Neutraal: 0</t>
   </si>
   <si>
     <t>Ja: 4
-nee: 2</t>
-  </si>
-  <si>
-    <t>Nee: 2
-ja: 4</t>
+Nee: 1
+Neutraal: 2</t>
+  </si>
+  <si>
+    <t>Ja: 1
+Nee: 6
+Neutraal: 0</t>
   </si>
   <si>
     <t>Ja: 2
-nee: 4</t>
-  </si>
-  <si>
-    <t>geen onderscheid: 2
-aanleveren: 3
-uitleveren: 1</t>
-  </si>
-  <si>
-    <t>Nee: 5
-ja: 1</t>
-  </si>
-  <si>
-    <t>geen onderscheid: 4
-uitleveren: 2</t>
-  </si>
-  <si>
-    <t>Nee: 4
-ja: 2</t>
-  </si>
-  <si>
-    <t>geen onderscheid: 4
-aanleveren: 1
-uitleveren :1</t>
+Nee: 5
+Neutraal: 0</t>
+  </si>
+  <si>
+    <t>Ja: 2
+Nee: 1
+Neutraal: 4</t>
+  </si>
+  <si>
+    <t>Ja: 2
+Nee: 4
+Neutraal: 1</t>
+  </si>
+  <si>
+    <t>Beide: 4
+Geen: 1
+Alleen registratie: 1
+Alleen uitleveren: 1</t>
+  </si>
+  <si>
+    <t>Beide: 2
+Geen: 1
+Alleen registratie: 3
+Alleen uitleveren: 1</t>
+  </si>
+  <si>
+    <t>Beide: 5
+Geen: 0
+Alleen registratie: 0
+Alleen uitleveren: 2</t>
+  </si>
+  <si>
+    <t>Totale score</t>
   </si>
 </sst>
 </file>
@@ -262,14 +311,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,11 +340,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -345,16 +391,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -392,17 +437,19 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Goed" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Invoer" xfId="5" builtinId="20"/>
     <cellStyle name="Kop 1" xfId="1" builtinId="16"/>
     <cellStyle name="Neutraal" xfId="4" builtinId="28"/>
-    <cellStyle name="Ongeldig" xfId="6" builtinId="27"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -715,24 +762,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:G10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="45.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="6" width="38" customWidth="1"/>
-    <col min="7" max="7" width="47.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="16" customWidth="1"/>
+    <col min="12" max="12" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -745,20 +794,30 @@
       <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="35.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -768,21 +827,32 @@
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="16">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="120.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="16">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="16">
+        <v>7</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="120.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -792,21 +862,32 @@
       <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="16">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="16">
+        <v>-5</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+      <c r="I3" s="16">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -816,21 +897,32 @@
       <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="16">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="16">
+        <v>3</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="I4" s="16">
+        <v>-5</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -840,21 +932,32 @@
       <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="D5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="16">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="16">
+        <v>-2</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="16">
+        <v>7</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="K5" s="16">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -864,21 +967,32 @@
       <c r="C6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="E6" s="16">
+        <v>-3</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="16">
+        <v>7</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="16">
+        <v>5</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -888,21 +1002,32 @@
       <c r="C7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="16">
+        <v>-3</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="16">
+        <v>-5</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -912,21 +1037,32 @@
       <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="16">
+        <v>7</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="16">
+        <v>7</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -936,250 +1072,369 @@
       <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="16">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="16">
+        <v>5</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="I11" s="17"/>
+      <c r="J11" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="K11" s="17"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C17" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="E17" s="16">
+        <f>SUM(E2:E9)</f>
+        <v>19</v>
+      </c>
+      <c r="G17" s="16">
+        <f>SUM(G2:G9)</f>
+        <v>2</v>
+      </c>
+      <c r="I17" s="16">
+        <f>SUM(I2:I9)</f>
+        <v>26</v>
+      </c>
+      <c r="K17" s="16">
+        <f>SUM(K2:K9)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="18"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="18"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="18"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="18"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="18"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="18"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="G25" s="18"/>
       <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="18"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="G26" s="18"/>
       <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="18"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="18"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="18"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+      <c r="G29" s="18"/>
       <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="18"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="G30" s="18"/>
       <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="18"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="G31" s="18"/>
       <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="18"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="18"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="G32" s="18"/>
       <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="18"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="G33" s="18"/>
       <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="18"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="G34" s="18"/>
       <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="18"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="G35" s="18"/>
       <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="18"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="18"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="G36" s="18"/>
       <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="18"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="18"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="G37" s="18"/>
       <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="18"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="18"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="G38" s="18"/>
       <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="18"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="18"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
+      <c r="G39" s="18"/>
       <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="18"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="18"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+      <c r="G40" s="18"/>
       <c r="H40" s="8"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D11" r:id="rId2" location="tab-informatiemodel-a" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E11" r:id="rId3" location="tab-informatiemodel-b" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F11" r:id="rId4" location="tab-informatiemodel-c" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G11" r:id="rId5" location="tab-informatiemodel-d-object" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F11" r:id="rId2" location="tab-informatiemodel-b" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H11" r:id="rId3" location="tab-informatiemodel-c" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J11" r:id="rId4" location="tab-informatiemodel-d-object" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D11" r:id="rId5" location="tab-informatiemodel-a" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
